--- a/HINS_MCU_V3.0_M/doc/MIP.xlsx
+++ b/HINS_MCU_V3.0_M/doc/MIP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.0\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.0_M\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5561D1B3-9E22-4A68-9ED3-9B7A3F4FDC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16BD10F-317C-4419-82C5-507EA518FAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,22 @@
   </si>
   <si>
     <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定 GPIO1 為 UART2 Tx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 07 07 41 01 01 05 21 00 5D AE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定 GPIO2 為 UART2 Rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 07 07 41 01 02 05 22 02 61 B6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B4" sqref="B4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1073,7 +1089,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G14" si="0">DEC2HEX(LEN(SUBSTITUTE(H3," ",""))/2,2)</f>
+        <f t="shared" ref="G3:G16" si="0">DEC2HEX(LEN(SUBSTITUTE(H3," ",""))/2,2)</f>
         <v>0A</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1086,60 +1102,59 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>0A</v>
+        <v>0D</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="I4" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G4&amp;" "&amp;H4&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0A 75 65 01 04 04 09 02 12 00 C6 51 52</v>
+        <f t="shared" ref="I4:I5" si="1">"BC"&amp;" CB"&amp;" 97 "&amp;G4&amp;" "&amp;H4&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0D 75 65 0C 07 07 41 01 01 05 21 00 5D AE 51 52</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>0E</v>
+        <v>0D</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ref="I5:I14" si="1">"BC"&amp;" CB"&amp;" 97 "&amp;G5&amp;" "&amp;H5&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 03 84 00 8E 15 51 52</v>
+        <f t="shared" si="1"/>
+        <v>BC CB 97 0D 75 65 0C 07 07 41 01 02 05 22 02 61 B6 51 52</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -1150,231 +1165,284 @@
       <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>0E</v>
+        <v>0A</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 01 C2 00 CA 8B 51 52</v>
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G6&amp;" "&amp;H6&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0A 75 65 01 04 04 09 02 12 00 C6 51 52</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>0A</v>
+        <v>0E</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v>BC CB 97 0A 75 65 7F 04 04 02 02 12 77 A5 51 52</v>
+        <f t="shared" ref="I7:I16" si="2">"BC"&amp;" CB"&amp;" 97 "&amp;G7&amp;" "&amp;H7&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 03 84 00 8E 15 51 52</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0E</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>BC CB 97 12 75 65 7F 0C 0C 02 01 12 00 00 00 01 00 00 00 01 88 21 51 52</v>
+        <f t="shared" si="2"/>
+        <v>BC CB 97 0E 75 65 01 08 08 09 01 12 00 01 C2 00 CA 8B 51 52</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>0E</v>
+        <v>0A</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
+        <f t="shared" si="2"/>
+        <v>BC CB 97 0A 75 65 7F 04 04 02 02 12 77 A5 51 52</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>0E</v>
+        <v>12</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 14 E6 BF 51 52</v>
+        <f t="shared" si="2"/>
+        <v>BC CB 97 12 75 65 7F 0C 0C 02 01 12 00 00 00 01 00 00 00 01 88 21 51 52</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="G11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>0B</v>
+        <v>0E</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
+        <f t="shared" si="2"/>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 64 36 0F 51 52</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G12" s="5" t="str">
-        <f>DEC2HEX(LEN(SUBSTITUTE(H12," ",""))/2,2)</f>
-        <v>08</v>
+        <f t="shared" si="0"/>
+        <v>0E</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I12" t="str">
-        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G12&amp;" "&amp;H12&amp;" 51"&amp;" 52"</f>
-        <v>BC CB 97 08 75 65 01 02 02 06 E5 CB 51 52</v>
+        <f t="shared" si="2"/>
+        <v>BC CB 97 0E 75 65 0C 08 08 0F 01 82 01 49 00 14 E6 BF 51 52</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>08</v>
+        <v>0B</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>BC CB 97 08 75 65 01 02 02 02 E1 C7 51 52</v>
+        <f t="shared" si="2"/>
+        <v>BC CB 97 0B 75 65 0C 05 05 11 01 82 01 85 1C 51 52</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f>DEC2HEX(LEN(SUBSTITUTE(H14," ",""))/2,2)</f>
+        <v>08</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="str">
+        <f>"BC"&amp;" CB"&amp;" 97 "&amp;G14&amp;" "&amp;H14&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 08 75 65 01 02 02 06 E5 CB 51 52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>08</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>BC CB 97 08 75 65 01 02 02 02 E1 C7 51 52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="3" t="str">
+      <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>BC CB 97 09 75 65 0C 03 03 30 03 1F 45 51 52</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>60</v>
       </c>
     </row>

--- a/HINS_MCU_V3.0_M/doc/MIP.xlsx
+++ b/HINS_MCU_V3.0_M/doc/MIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Arduino\HINS_MCU_V3.0_M\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16BD10F-317C-4419-82C5-507EA518FAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7F01E5-634F-434B-B040-F755E6F62343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,42 @@
   </si>
   <si>
     <t>75 65 0C 07 07 41 01 02 05 22 02 61 B6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取 Aiding Measurement Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0C 06 06 0D 82 00 01 46 C8 5E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0D 06 06 50 01 00 05 01 4A 74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable EXTERNAL_HEADING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 65 0D 05 05 50 02 00 05 48 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讀取 EXTERNAL_HEADING 是否 enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D5"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1424,7 +1460,7 @@
         <v>BC CB 97 09 75 65 0C 03 03 30 03 1F 45 51 52</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1435,7 +1471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1444,6 +1480,78 @@
       </c>
       <c r="C19" s="3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" ref="G20:G22" si="3">DEC2HEX(LEN(SUBSTITUTE(H20," ",""))/2,2)</f>
+        <v>0C</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" ref="I20:I22" si="4">"BC"&amp;" CB"&amp;" 97 "&amp;G20&amp;" "&amp;H20&amp;" 51"&amp;" 52"</f>
+        <v>BC CB 97 0C 75 65 0C 06 06 0D 82 00 01 46 C8 5E 51 52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>0C</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0C 75 65 0D 06 06 50 01 00 05 01 4A 74 51 52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>0B</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>BC CB 97 0B 75 65 0D 05 05 50 02 00 05 48 22 51 52</v>
       </c>
     </row>
   </sheetData>
